--- a/biology/Botanique/Staphyleaceae/Staphyleaceae.xlsx
+++ b/biology/Botanique/Staphyleaceae/Staphyleaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Staphyléacées regroupe des plantes dicotylédones ; elle comprend 60 espèces réparties en 2 à 5 genres.
 Ce sont des petits arbres ou des arbustes, à feuilles opposées, composées, des régions tempérées à tropicales, originaires de l'hémisphère nord (holarctique, Indomalais) et d'Amérique du Sud.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Staphylea issu du grec σταφυλ / staphyl , « grappe de raisin », en référence à la forme en grappe des inflorescences.
-Pline l'Ancien (23-79) décrit une plante appelée Staphylodendron  dont il est difficile de connaître l’espèce mais qu’il nomme « arbre au raisin » ou « pistache sauvage »[1].
+Pline l'Ancien (23-79) décrit une plante appelée Staphylodendron  dont il est difficile de connaître l’espèce mais qu’il nomme « arbre au raisin » ou « pistache sauvage ».
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification classique, Cronquist (1981), situe cette famille dans l'ordre des Sapindales.
-La classification phylogénétique APG II (2003)[2] assigne les genres Huertea et Tapiscia aux Tapisciacées (ordre des Huerteales) et situe les Staphyléacées dans l'ordre des Crossosomatales.
+La classification phylogénétique APG II (2003) assigne les genres Huertea et Tapiscia aux Tapisciacées (ordre des Huerteales) et situe les Staphyléacées dans l'ordre des Crossosomatales.
 </t>
         </is>
       </c>
@@ -576,24 +592,26 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (2 juin 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (2 juin 2010) :
 Dalrympelea (es) Roxburgh
 Staphylea Linnaeus
-Selon NCBI  (2 juin 2010)[4] :
+Selon NCBI  (2 juin 2010) :
 Euscaphis (es) (inclus dans Staphylea par Angiosperm Phylogeny Website)
 Huertea (es)
 Staphylea
 Turpinia (es) (inclus dans Staphylea par Angiosperm Phylogeny Website)
-Selon DELTA Angio           (2 juin 2010)[5] :
+Selon DELTA Angio           (2 juin 2010) :
 Euscaphis (es) (inclus dans Staphylea par Angiosperm Phylogeny Website)
 Staphylea
 Turpinia (inclus dans Staphylea par Angiosperm Phylogeny Website)
-Selon ITIS      (2 juin 2010)[6] :
+Selon ITIS      (2 juin 2010) :
 Staphylea L.
 Turpinia Vent. (inclus dans Staphylea par Angiosperm Phylogeny Website)
-L'Angiosperm Phylogeny Website                        (15 juin 2010)[7], GRIN            (15 juin 2010)[8] et DELTA Angio           (15 juin 2010)[9] placent le genre Huertea dans les Tapisciaceae.
+L'Angiosperm Phylogeny Website                        (15 juin 2010), GRIN            (15 juin 2010) et DELTA Angio           (15 juin 2010) placent le genre Huertea dans les Tapisciaceae.
 </t>
         </is>
       </c>
@@ -622,9 +640,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 juin 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 juin 2010) :
 genre Euscaphis
 Euscaphis japonica
 genre Huertea
